--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_534.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_534.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33043-d81852-Reviews-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Irvine-Orange-County-Airport.h42361.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_534.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,631 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r572310997-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>33043</t>
+  </si>
+  <si>
+    <t>81852</t>
+  </si>
+  <si>
+    <t>572310997</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Do not stay here!!!</t>
+  </si>
+  <si>
+    <t>First of all the rooms were very outdated and gross. They were clean-ish, but not to my standards. The pool was unusable. Ducks had taken over the entire area pooping everywhere including inside the hot tub! Gag! My poor kids couldn't swim to let off energy which was hectic. I'm glad I only had to endure 1 night. I couldn't even shower without using my flip flops and there was hair on the walls!!!! Do not stay here. Ask to see the rooms first and inspect the pool area. Not happy with my experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Irvine - Orange County Airport, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>First of all the rooms were very outdated and gross. They were clean-ish, but not to my standards. The pool was unusable. Ducks had taken over the entire area pooping everywhere including inside the hot tub! Gag! My poor kids couldn't swim to let off energy which was hectic. I'm glad I only had to endure 1 night. I couldn't even shower without using my flip flops and there was hair on the walls!!!! Do not stay here. Ask to see the rooms first and inspect the pool area. Not happy with my experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r547272069-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>547272069</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Wonderful customer service.</t>
+  </si>
+  <si>
+    <t>The staff here are so incredibly kind and helpful. The rooms are pretty clean. They worked with us . Thank you very much... The room is spacious. The maids are amazing. Mohammed the asst manager is awesome!! Thank you for helping us out with the holidays...</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r482356348-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>482356348</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Staff Attempt to Extort Money from Guests; Management Unresponsive.</t>
+  </si>
+  <si>
+    <t>I don't often stay at Motel 6, but I had business in the area, was traveling alone, and needed a room for one night. I made a reservation at this property on 3/17/2016 and was quoted a rate of 82.13.  I was e-mailed a confirmation of this amount on official Motel 6 letterhead, which I brought with me to the property. On arrival, the desk clerk, Tony Kais, attempted to charge me more.  I politely informed him that my reservation, including tax, was for the amount of 82.13.  I then showed him the official reservation, and he said that he would charge me $84, because I was "being difficult."  In fact, I was not being difficult (please see my other reviews; it should be evident that I am not "difficult" with hotels or their staff), I was simply providing him with evidence that he was wrong, and that he was attempting to overcharge me. I then said that I would pay him the $84, and asked for a receipt.  At this point, HE RAISED THE PRICE TO NINETY-THREE DOLLARS, and refused to give a receipt.  I left the property and immediately brought the matter to the attention to the manager of the property, David Castro, who ignored my telephone calls. I sent Mr. Castro TWO CERTIFIED LETTERS, one dated April 18, 2016, and one dated May 18, 2017.  Both provided evidence that Mr. Kais had committed extortion and had attempted...I don't often stay at Motel 6, but I had business in the area, was traveling alone, and needed a room for one night. I made a reservation at this property on 3/17/2016 and was quoted a rate of 82.13.  I was e-mailed a confirmation of this amount on official Motel 6 letterhead, which I brought with me to the property. On arrival, the desk clerk, Tony Kais, attempted to charge me more.  I politely informed him that my reservation, including tax, was for the amount of 82.13.  I then showed him the official reservation, and he said that he would charge me $84, because I was "being difficult."  In fact, I was not being difficult (please see my other reviews; it should be evident that I am not "difficult" with hotels or their staff), I was simply providing him with evidence that he was wrong, and that he was attempting to overcharge me. I then said that I would pay him the $84, and asked for a receipt.  At this point, HE RAISED THE PRICE TO NINETY-THREE DOLLARS, and refused to give a receipt.  I left the property and immediately brought the matter to the attention to the manager of the property, David Castro, who ignored my telephone calls. I sent Mr. Castro TWO CERTIFIED LETTERS, one dated April 18, 2016, and one dated May 18, 2017.  Both provided evidence that Mr. Kais had committed extortion and had attempted to commit consumer fraud. Mr. Castro did not respond to either one.  I visited the property in an attempt to speak with Mr. Castro directly, and was informed that Mr. Castro "wasn't available." It begs the question as to whom is in on what. I have contacted Motel 6 corporate on numerous occasions.  The only action they took was to provide me with gift certificates for two free stays, which is nice I suppose, but doesn't address the problem: they have a rogue property manager that sanctions criminal activity at this property. The only good thing about this situation was that, because I left, I was not subjected to the horrible experiences so many others have described here.  Prospective guests, stay here at your substantial risk.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I don't often stay at Motel 6, but I had business in the area, was traveling alone, and needed a room for one night. I made a reservation at this property on 3/17/2016 and was quoted a rate of 82.13.  I was e-mailed a confirmation of this amount on official Motel 6 letterhead, which I brought with me to the property. On arrival, the desk clerk, Tony Kais, attempted to charge me more.  I politely informed him that my reservation, including tax, was for the amount of 82.13.  I then showed him the official reservation, and he said that he would charge me $84, because I was "being difficult."  In fact, I was not being difficult (please see my other reviews; it should be evident that I am not "difficult" with hotels or their staff), I was simply providing him with evidence that he was wrong, and that he was attempting to overcharge me. I then said that I would pay him the $84, and asked for a receipt.  At this point, HE RAISED THE PRICE TO NINETY-THREE DOLLARS, and refused to give a receipt.  I left the property and immediately brought the matter to the attention to the manager of the property, David Castro, who ignored my telephone calls. I sent Mr. Castro TWO CERTIFIED LETTERS, one dated April 18, 2016, and one dated May 18, 2017.  Both provided evidence that Mr. Kais had committed extortion and had attempted...I don't often stay at Motel 6, but I had business in the area, was traveling alone, and needed a room for one night. I made a reservation at this property on 3/17/2016 and was quoted a rate of 82.13.  I was e-mailed a confirmation of this amount on official Motel 6 letterhead, which I brought with me to the property. On arrival, the desk clerk, Tony Kais, attempted to charge me more.  I politely informed him that my reservation, including tax, was for the amount of 82.13.  I then showed him the official reservation, and he said that he would charge me $84, because I was "being difficult."  In fact, I was not being difficult (please see my other reviews; it should be evident that I am not "difficult" with hotels or their staff), I was simply providing him with evidence that he was wrong, and that he was attempting to overcharge me. I then said that I would pay him the $84, and asked for a receipt.  At this point, HE RAISED THE PRICE TO NINETY-THREE DOLLARS, and refused to give a receipt.  I left the property and immediately brought the matter to the attention to the manager of the property, David Castro, who ignored my telephone calls. I sent Mr. Castro TWO CERTIFIED LETTERS, one dated April 18, 2016, and one dated May 18, 2017.  Both provided evidence that Mr. Kais had committed extortion and had attempted to commit consumer fraud. Mr. Castro did not respond to either one.  I visited the property in an attempt to speak with Mr. Castro directly, and was informed that Mr. Castro "wasn't available." It begs the question as to whom is in on what. I have contacted Motel 6 corporate on numerous occasions.  The only action they took was to provide me with gift certificates for two free stays, which is nice I suppose, but doesn't address the problem: they have a rogue property manager that sanctions criminal activity at this property. The only good thing about this situation was that, because I left, I was not subjected to the horrible experiences so many others have described here.  Prospective guests, stay here at your substantial risk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r421560173-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>421560173</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, and affordable</t>
+  </si>
+  <si>
+    <t>Needed a basic room to sleep following a long day of business and didn't want to fight the traffic out of town leaving Newport.This motel 6 is just off of the freeway and next to a gas station/C-store. Across the street there are many options to eat as well. Had a great night's sleep in a clean comfortable room.Thank you again motel 6 for being so consistent!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r411619687-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>411619687</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close and consistent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay here when I am working in Orange County.  I am a transplant from LA, this hotel makes me feel at home.  From the front desk to accommodating any situation.  Commuting from LA used to be hard, this place helps you relax in a beautiful setting.  </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r400237417-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>400237417</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Motel 6  7/31/2016 3 pm David Castro, general manager at this Motel 6 location in Santa Ana threw me out of the Motel 6</t>
+  </si>
+  <si>
+    <t>7/31/2016 3 pm David Castro, general manager at this Motel 6 location in Santa Ana threw me out of the Motel 6 in Santa Ana and threated to call the police if I didn't leave in 30 minutes. Assuming this is the person's name, as I asked for a card from the lobby on who this person was when I checked out and there is a picture to collaborate. There were major problems when I stayed at this Motel 6 one other time about 4 months ago and I never wanted to stay at this location again.. David Castro knocked on my door extremely aggressively and then David Castro was aggressive when he spoke to me at my hotel room door. Also David Castro said lease the dog in a very aggressive manner when the door was opened to talk to David Castro and this is a small dog of 12 pounds. I came down to the hotel lobby and stated to David Castro, in person, that David Castro was extremely aggressive at my hotel room door. David Castro attempted to reverse the situation and claimed I was aggressive which is very inaccurate. Then David Castro threw me out of the hotel, and said if I didn't leave in 30 minutes David Castro was going to call the police. Motel 6 executive management must understand this person that David Castro has no business working in the hotel industry, and as...7/31/2016 3 pm David Castro, general manager at this Motel 6 location in Santa Ana threw me out of the Motel 6 in Santa Ana and threated to call the police if I didn't leave in 30 minutes. Assuming this is the person's name, as I asked for a card from the lobby on who this person was when I checked out and there is a picture to collaborate. There were major problems when I stayed at this Motel 6 one other time about 4 months ago and I never wanted to stay at this location again.. David Castro knocked on my door extremely aggressively and then David Castro was aggressive when he spoke to me at my hotel room door. Also David Castro said lease the dog in a very aggressive manner when the door was opened to talk to David Castro and this is a small dog of 12 pounds. I came down to the hotel lobby and stated to David Castro, in person, that David Castro was extremely aggressive at my hotel room door. David Castro attempted to reverse the situation and claimed I was aggressive which is very inaccurate. Then David Castro threw me out of the hotel, and said if I didn't leave in 30 minutes David Castro was going to call the police. Motel 6 executive management must understand this person that David Castro has no business working in the hotel industry, and as a hotel manager has the authority to throw anyone out of the hotel and then threaten to have the local Santa Ana police come and created a potentially violent situation based on David Castro's word. David Castro in this situation threw a vacationer out of the hotel after David Castro was extremely aggressive and acted in a threatening manner. Motel 6 executive management should not allow this location to use the Motel 6 franchise name as vacationers and air travelers to Orange County airport are subjected to grave risk from this manager David Castro, having authority to call local Santa Ana police under his word which gives false accounts of vacationers then the local police showing up causing very serious potential risk to these vacationers. This David Castro obviously has some personal issues and surprised he can hold down a job, any job, let alone working in the hotel business which David Castro is ill fitted to work in this industry. You can't really see David Castro's demeanor that well from the blurry pictures. I rebooked at the Motel 6 on another location which I normally always stay, but that Motel 6 was $ higher. Saturday night, 7/29/2016, so chose a different Motel 6 due to cost considerations. This guy, David Castro, thinks he is running a prison not a hotel. Everyone who books a room in this location isn't homeless and vacationers also stay here such as me. Filing a formal and major complaint against, David Castro, in attempt to get him fired. He shouldn't be working in the hotel industry, and as mentioned, prison guard would be a better job for him. I left and got my belongings out that's a high insult saying your calling the police on a customer when as general manager you instigated the trouble. I was told he was paid for all 4 nights when I initially checked in and then they stated they wanted me to pay each day on this day, 7/31/2016 . The reviews on Yelp are beyond terrible for this Motel 6 in Santa Ana. David Castro has done this before. Got the impression the hotel staff would like to see David Castro fired as when I checked out and turned in my motel key. The picture of David Castro is from when I was moving all my belongings out 30 minutes later after I rebooked at Motel 6 on another safe location for the next 3 days. David Castro was waiting outside my hotel room door so got David Castro's picture. David Castro isn't civilized and obviously David Castro was very concerned I  was going to go after Castro's job in an attempt to get Castro rightfully fired. Every time you stay at a Motel 6 they ask for feedback on your stay and this is my feedback.]  David Castro General Manager  1717 E Dyer Road Santa Ana, CA 92705 (949) 261-1515MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>7/31/2016 3 pm David Castro, general manager at this Motel 6 location in Santa Ana threw me out of the Motel 6 in Santa Ana and threated to call the police if I didn't leave in 30 minutes. Assuming this is the person's name, as I asked for a card from the lobby on who this person was when I checked out and there is a picture to collaborate. There were major problems when I stayed at this Motel 6 one other time about 4 months ago and I never wanted to stay at this location again.. David Castro knocked on my door extremely aggressively and then David Castro was aggressive when he spoke to me at my hotel room door. Also David Castro said lease the dog in a very aggressive manner when the door was opened to talk to David Castro and this is a small dog of 12 pounds. I came down to the hotel lobby and stated to David Castro, in person, that David Castro was extremely aggressive at my hotel room door. David Castro attempted to reverse the situation and claimed I was aggressive which is very inaccurate. Then David Castro threw me out of the hotel, and said if I didn't leave in 30 minutes David Castro was going to call the police. Motel 6 executive management must understand this person that David Castro has no business working in the hotel industry, and as...7/31/2016 3 pm David Castro, general manager at this Motel 6 location in Santa Ana threw me out of the Motel 6 in Santa Ana and threated to call the police if I didn't leave in 30 minutes. Assuming this is the person's name, as I asked for a card from the lobby on who this person was when I checked out and there is a picture to collaborate. There were major problems when I stayed at this Motel 6 one other time about 4 months ago and I never wanted to stay at this location again.. David Castro knocked on my door extremely aggressively and then David Castro was aggressive when he spoke to me at my hotel room door. Also David Castro said lease the dog in a very aggressive manner when the door was opened to talk to David Castro and this is a small dog of 12 pounds. I came down to the hotel lobby and stated to David Castro, in person, that David Castro was extremely aggressive at my hotel room door. David Castro attempted to reverse the situation and claimed I was aggressive which is very inaccurate. Then David Castro threw me out of the hotel, and said if I didn't leave in 30 minutes David Castro was going to call the police. Motel 6 executive management must understand this person that David Castro has no business working in the hotel industry, and as a hotel manager has the authority to throw anyone out of the hotel and then threaten to have the local Santa Ana police come and created a potentially violent situation based on David Castro's word. David Castro in this situation threw a vacationer out of the hotel after David Castro was extremely aggressive and acted in a threatening manner. Motel 6 executive management should not allow this location to use the Motel 6 franchise name as vacationers and air travelers to Orange County airport are subjected to grave risk from this manager David Castro, having authority to call local Santa Ana police under his word which gives false accounts of vacationers then the local police showing up causing very serious potential risk to these vacationers. This David Castro obviously has some personal issues and surprised he can hold down a job, any job, let alone working in the hotel business which David Castro is ill fitted to work in this industry. You can't really see David Castro's demeanor that well from the blurry pictures. I rebooked at the Motel 6 on another location which I normally always stay, but that Motel 6 was $ higher. Saturday night, 7/29/2016, so chose a different Motel 6 due to cost considerations. This guy, David Castro, thinks he is running a prison not a hotel. Everyone who books a room in this location isn't homeless and vacationers also stay here such as me. Filing a formal and major complaint against, David Castro, in attempt to get him fired. He shouldn't be working in the hotel industry, and as mentioned, prison guard would be a better job for him. I left and got my belongings out that's a high insult saying your calling the police on a customer when as general manager you instigated the trouble. I was told he was paid for all 4 nights when I initially checked in and then they stated they wanted me to pay each day on this day, 7/31/2016 . The reviews on Yelp are beyond terrible for this Motel 6 in Santa Ana. David Castro has done this before. Got the impression the hotel staff would like to see David Castro fired as when I checked out and turned in my motel key. The picture of David Castro is from when I was moving all my belongings out 30 minutes later after I rebooked at Motel 6 on another safe location for the next 3 days. David Castro was waiting outside my hotel room door so got David Castro's picture. David Castro isn't civilized and obviously David Castro was very concerned I  was going to go after Castro's job in an attempt to get Castro rightfully fired. Every time you stay at a Motel 6 they ask for feedback on your stay and this is my feedback.]  David Castro General Manager  1717 E Dyer Road Santa Ana, CA 92705 (949) 261-1515More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r332135638-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>332135638</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Concert Night</t>
+  </si>
+  <si>
+    <t>Just wanted a hotel for a mid week concert and Motel 6 has been very good for the price and timing lately. Very Nice staff especially AMY what a friendly sweet heart. Was having us laughing during check in requested extra pillows and immediately got for us. The Motel was clean and staff friendly good night!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r317382763-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>317382763</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>The motel has bed bugs</t>
+  </si>
+  <si>
+    <t>They have bed bugs they had a year ago and they still have them check in check the beds checked out one half hour later was given a refund but no money has appeared in my account its been 4 days. I stayed there approximately 1 year ago for two days I didn't find them until the last day when I was packing up. I was horrified when I found them I went out and bought trash bags and bed bug spray I put all my belongings into the trash bags sprayed all of my belongings inside the trash bag sealed them up then loaded them into the car then home upon arriving at home open bags put all items into washing machine with hot water I'm lucky I didn't carry little monsters home no infestation ever appeared at home thank goodnessMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Irvine - Orange County Airport, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>They have bed bugs they had a year ago and they still have them check in check the beds checked out one half hour later was given a refund but no money has appeared in my account its been 4 days. I stayed there approximately 1 year ago for two days I didn't find them until the last day when I was packing up. I was horrified when I found them I went out and bought trash bags and bed bug spray I put all my belongings into the trash bags sprayed all of my belongings inside the trash bag sealed them up then loaded them into the car then home upon arriving at home open bags put all items into washing machine with hot water I'm lucky I didn't carry little monsters home no infestation ever appeared at home thank goodnessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r294131156-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>294131156</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Low Scale</t>
+  </si>
+  <si>
+    <t>I guess the best thing about this place is the pool. So if you're a family with kids who like to splash in a rather big outdoor pool - and that's all - go for it!  Otherwise, the hotel is less than bare bones. My room was spacious but no fridge, microwave, iron, or bath supplies. I came down in the morning for complimentary coffee but they ran out. Negotiating maintenance and the billing with the staff is a challenge. The motel is backed up to the freeway so you might take offense at night from the noise of the traffic. But plenty of free parking and there is gas and a bit of fast food that's walkable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Irvine - Orange County Airport, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>I guess the best thing about this place is the pool. So if you're a family with kids who like to splash in a rather big outdoor pool - and that's all - go for it!  Otherwise, the hotel is less than bare bones. My room was spacious but no fridge, microwave, iron, or bath supplies. I came down in the morning for complimentary coffee but they ran out. Negotiating maintenance and the billing with the staff is a challenge. The motel is backed up to the freeway so you might take offense at night from the noise of the traffic. But plenty of free parking and there is gas and a bit of fast food that's walkable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r288320166-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>288320166</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Horrible and Noisy</t>
+  </si>
+  <si>
+    <t>We checked in via the Delta app to fly out early the next AM and the security doors were inoperative (always open) NO amenities but one bar of soap, NOISY - I heard hallway noise and doors slamming WITH earplugs in all night. They had free coffee the next AM and nothing else, NO Airport shuttle or offer to arrange. Mostly the grounds were filthy and unkempt, the dog poop bags were empty. My shower head was held on by a dirty rag and the curtain hung off the wall. This place would sit well in a third world country</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r284521168-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>284521168</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Average Stay</t>
+  </si>
+  <si>
+    <t>I arrived here this past weekend, with a bit of a mix up in reservations on my part. So, while I am on the phone with the other location to cancel,  (so I wont get charged for not showing up, as it was almost the cut off time), the agent at the front desk kept asking me questions about what I needed for the night. Couldn't it have waited just a few minutes while I was on the phone? (I was the only guest in the lobby so I wasn't holding anyone up).Once I was finally in the room, there were stains on the bed sheets and on the bathmat.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I arrived here this past weekend, with a bit of a mix up in reservations on my part. So, while I am on the phone with the other location to cancel,  (so I wont get charged for not showing up, as it was almost the cut off time), the agent at the front desk kept asking me questions about what I needed for the night. Couldn't it have waited just a few minutes while I was on the phone? (I was the only guest in the lobby so I wasn't holding anyone up).Once I was finally in the room, there were stains on the bed sheets and on the bathmat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r269404400-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>269404400</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>No frills stay at Motel 6</t>
+  </si>
+  <si>
+    <t>This was a good value stay, especially after the 10% discount with my AARP card.   It's under the flight path for arriving jets to John Wayne airport, but most noise ends by 10:00PM.  Rooms have been upgraded to what they call "modern," a kind of mid-century look with fake hardwood floors and bright colors.  The motel is next to an AM/PM so easy to get snacks</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r226154900-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>226154900</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Cheap stay</t>
+  </si>
+  <si>
+    <t>Great place to stay if you want to save money. Nothing special about this motel. I stay here when I visit my family in Irvine since it's close. Great way to stay within your budget. You can pay for wifi if you need it as well.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r221478819-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>221478819</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Expected more for $100 a night</t>
+  </si>
+  <si>
+    <t>Rooms are very plain.  One bed (not very comfy), a built in desk with chair, dresser and TV.  We checked in and requested a non smoking room.  When we opened the door to the room someone had obviously smoked recently in it.  I went back to the desk and she offered me a "spray" to fix it!  I asked if there was a different room and she finally agreed to move us.  At 12 midnight someone decided to pound on our neighbors door and yell loudly in Spanish.  It was a no frills night, kinda expected more for what we paid.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r219124190-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>219124190</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Updated rooms. Housekeepers do a great job and are very nice.. Manager David was outstanding. Very family and pet friendly. Nice courtyard with pool. The upstairs rooms have nice balcony. The rooms are also fairly large. No fridge or microwave for extended stays. We managed with a cooler. Plenty of ice. Good bang for your buck. Better than the 3 LA Quintas in the area and better priced. The area has all amenities including Walmart. Gas station next door and fast food across the street. Easy access to the 55, I-405, I-5We would stay again without question.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r190768286-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>190768286</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>A most excellent alternative</t>
+  </si>
+  <si>
+    <t>I liked this Motel 6.The room looked newly renovated. It was clean and comfortable.The room(s) were good; the staff was excellent. They really made me and my party feel comfortable and secure. We used this motel for 3 nights. Two nights in an upstairs rooms prior to a cruise and one night in a downstairs room after the cruise.We got off of our cruise ship and enterred the motel early.  The manager remembered us from the earlier nights. Although he could not check us in, he did secure our luggage while offering us some ideas regarding local things to see and do. We took him up on Newport Beacj and had a wonderful day.I would recommend this motel to anyone for their stay in the Orange County area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I liked this Motel 6.The room looked newly renovated. It was clean and comfortable.The room(s) were good; the staff was excellent. They really made me and my party feel comfortable and secure. We used this motel for 3 nights. Two nights in an upstairs rooms prior to a cruise and one night in a downstairs room after the cruise.We got off of our cruise ship and enterred the motel early.  The manager remembered us from the earlier nights. Although he could not check us in, he did secure our luggage while offering us some ideas regarding local things to see and do. We took him up on Newport Beacj and had a wonderful day.I would recommend this motel to anyone for their stay in the Orange County area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r187581966-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>187581966</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>mothel 6/half way house</t>
+  </si>
+  <si>
+    <t>it was ok for the money early this year 2013 stayed there about 5 times diferent times 2 o 3 nights each time.Some of the reviews here are correct.stared to look more like a half way house. ,vagrantsand pandhandlers linger in the parking lot,even some sleep in their cars,rooms always dirty,comforters with cigarrets holes,I put up with that for long time,but for me the kicker  was when my truck was vandalised(someone drill a hole in my gas tank of my truck and stole my full tank of gas,total bill for the repairs,$400 dlls.),don't park your automovil way in the back is very isolated.So,I swicht to la quinta next door 45 dlls.more but is worth it.No more mothel 6 for me.I forgot to mention they charge extra for internet,refrigerator,or micro.I get all that plus a small sink at la quinta inn is standar in all their rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>it was ok for the money early this year 2013 stayed there about 5 times diferent times 2 o 3 nights each time.Some of the reviews here are correct.stared to look more like a half way house. ,vagrantsand pandhandlers linger in the parking lot,even some sleep in their cars,rooms always dirty,comforters with cigarrets holes,I put up with that for long time,but for me the kicker  was when my truck was vandalised(someone drill a hole in my gas tank of my truck and stole my full tank of gas,total bill for the repairs,$400 dlls.),don't park your automovil way in the back is very isolated.So,I swicht to la quinta next door 45 dlls.more but is worth it.No more mothel 6 for me.I forgot to mention they charge extra for internet,refrigerator,or micro.I get all that plus a small sink at la quinta inn is standar in all their rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r172885085-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>172885085</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Sad to see a once nice place slowly die over the years</t>
+  </si>
+  <si>
+    <t>This is one of 8 motels just off of RT 55 at the Dyer Rd exit.  There are about 6 others at adjacent exits too.  It is also one of the oldest (the nearby Holiday Inn might be older).  It's been affiliated with a variety of chains, going a step lower in grade with each change, and was a Red Roof before it became Motel 6.  I stayed there many times when it was Red Roof.  The rooms are larger than average, they have patios, and there is always ample parking with wide parking spaces.  When Motel 6 took over, they raised the rates and the nearby Comfort Suites (their rooms are not really suites) was a better deal for about the same price with a free continental+ breakfast.  Well the econopmy must be getting better because the Comfort had boosted rates for the summer so I decided to try this motel in its Motel 6 incarnation.  The $35 a night difference betwen this and the Comfort could buy a very nice breakfast.
+There are some noise issues with this motel.  As others have mentioned it is almost directly below the landing pattern for the nearby airport and the planes are low and loud.  Fortunately, the ariport does not operate betwen about 11PM and 7 AM.  The other noise source is busy Dyer Road and the 55 itself.  The motel has 3 wings and half the room are within a...This is one of 8 motels just off of RT 55 at the Dyer Rd exit.  There are about 6 others at adjacent exits too.  It is also one of the oldest (the nearby Holiday Inn might be older).  It's been affiliated with a variety of chains, going a step lower in grade with each change, and was a Red Roof before it became Motel 6.  I stayed there many times when it was Red Roof.  The rooms are larger than average, they have patios, and there is always ample parking with wide parking spaces.  When Motel 6 took over, they raised the rates and the nearby Comfort Suites (their rooms are not really suites) was a better deal for about the same price with a free continental+ breakfast.  Well the econopmy must be getting better because the Comfort had boosted rates for the summer so I decided to try this motel in its Motel 6 incarnation.  The $35 a night difference betwen this and the Comfort could buy a very nice breakfast.There are some noise issues with this motel.  As others have mentioned it is almost directly below the landing pattern for the nearby airport and the planes are low and loud.  Fortunately, the ariport does not operate betwen about 11PM and 7 AM.  The other noise source is busy Dyer Road and the 55 itself.  The motel has 3 wings and half the room are within a stone's throw of the freeway.I arrived early, around 11:30 AM, and was told no rooms were clean (spoiler alert: I don't think any of the rooms are EVER clean).  I gave them my reservation and name and asked that they save me a room near room 225 (second of the two floors and furthest away from Dyer Road and the 55).  I arrived back at 4 and was told i had room 203!  I asked for a different room and got 211, much better.  You pay at check-in and you do not get an itemized receipt, just an indication of what you paid.As I walked up the lobby steps to my room (there is an elevator I chose not to use) I was struck at how filthy the carpet on the steps was - virtually black in many areas.  The hall carpet had many large stains.  My room carpet had more spots than a dalmation.  The sliding glass door to the patio has a light blocking plastic liner which had so many holes it looked like someone had hit it with a shotgun.  At this point I'm not feeling good about my decision but I'm stuck for this trip.Later when I use the sink I find long black hairs (at least they weren't short and curly).  Now I'm wondering if anything in the room is properly clean.  The amenities were peculiar.  No alarm clock, shampoo, or tissues (used the spare roll of toilet paper as tissue) but I had a mini-fridge and microwave.  I did not use the pool but it seemed nice.Another reviewer mentioned "nearby restaurants" but this is true only if you count Del Taco and Carl's burgers.  A decent restaurant is several miles away.  There used to be a small, and bad, restaurant adjacent to the property years ago but was replaced by an ARCO gas station and mini-mart.  This is the cheapest (by far) gas station in the area and I saw a few vagrants on their lot during my stay.  It also is a noise source if you are near the front, like room 203.So despite the big difference in price, the Comfort is still the place to be if you are on a budget and care about cleanliness. For a few bucks more than the Comfort, the Quality Suites has real suites, a made-to-order breakfast, and is a "best buy".  If this Motel 6 were in Vegas, they'd blow it up.I have to seriously question some reviewers of this place who claim clean rooms.  They are either shills or stayed in a different wing of this disgusting place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Irvine - Orange County Airport, responded to this reviewResponded August 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2013</t>
+  </si>
+  <si>
+    <t>This is one of 8 motels just off of RT 55 at the Dyer Rd exit.  There are about 6 others at adjacent exits too.  It is also one of the oldest (the nearby Holiday Inn might be older).  It's been affiliated with a variety of chains, going a step lower in grade with each change, and was a Red Roof before it became Motel 6.  I stayed there many times when it was Red Roof.  The rooms are larger than average, they have patios, and there is always ample parking with wide parking spaces.  When Motel 6 took over, they raised the rates and the nearby Comfort Suites (their rooms are not really suites) was a better deal for about the same price with a free continental+ breakfast.  Well the econopmy must be getting better because the Comfort had boosted rates for the summer so I decided to try this motel in its Motel 6 incarnation.  The $35 a night difference betwen this and the Comfort could buy a very nice breakfast.
+There are some noise issues with this motel.  As others have mentioned it is almost directly below the landing pattern for the nearby airport and the planes are low and loud.  Fortunately, the ariport does not operate betwen about 11PM and 7 AM.  The other noise source is busy Dyer Road and the 55 itself.  The motel has 3 wings and half the room are within a...This is one of 8 motels just off of RT 55 at the Dyer Rd exit.  There are about 6 others at adjacent exits too.  It is also one of the oldest (the nearby Holiday Inn might be older).  It's been affiliated with a variety of chains, going a step lower in grade with each change, and was a Red Roof before it became Motel 6.  I stayed there many times when it was Red Roof.  The rooms are larger than average, they have patios, and there is always ample parking with wide parking spaces.  When Motel 6 took over, they raised the rates and the nearby Comfort Suites (their rooms are not really suites) was a better deal for about the same price with a free continental+ breakfast.  Well the econopmy must be getting better because the Comfort had boosted rates for the summer so I decided to try this motel in its Motel 6 incarnation.  The $35 a night difference betwen this and the Comfort could buy a very nice breakfast.There are some noise issues with this motel.  As others have mentioned it is almost directly below the landing pattern for the nearby airport and the planes are low and loud.  Fortunately, the ariport does not operate betwen about 11PM and 7 AM.  The other noise source is busy Dyer Road and the 55 itself.  The motel has 3 wings and half the room are within a stone's throw of the freeway.I arrived early, around 11:30 AM, and was told no rooms were clean (spoiler alert: I don't think any of the rooms are EVER clean).  I gave them my reservation and name and asked that they save me a room near room 225 (second of the two floors and furthest away from Dyer Road and the 55).  I arrived back at 4 and was told i had room 203!  I asked for a different room and got 211, much better.  You pay at check-in and you do not get an itemized receipt, just an indication of what you paid.As I walked up the lobby steps to my room (there is an elevator I chose not to use) I was struck at how filthy the carpet on the steps was - virtually black in many areas.  The hall carpet had many large stains.  My room carpet had more spots than a dalmation.  The sliding glass door to the patio has a light blocking plastic liner which had so many holes it looked like someone had hit it with a shotgun.  At this point I'm not feeling good about my decision but I'm stuck for this trip.Later when I use the sink I find long black hairs (at least they weren't short and curly).  Now I'm wondering if anything in the room is properly clean.  The amenities were peculiar.  No alarm clock, shampoo, or tissues (used the spare roll of toilet paper as tissue) but I had a mini-fridge and microwave.  I did not use the pool but it seemed nice.Another reviewer mentioned "nearby restaurants" but this is true only if you count Del Taco and Carl's burgers.  A decent restaurant is several miles away.  There used to be a small, and bad, restaurant adjacent to the property years ago but was replaced by an ARCO gas station and mini-mart.  This is the cheapest (by far) gas station in the area and I saw a few vagrants on their lot during my stay.  It also is a noise source if you are near the front, like room 203.So despite the big difference in price, the Comfort is still the place to be if you are on a budget and care about cleanliness. For a few bucks more than the Comfort, the Quality Suites has real suites, a made-to-order breakfast, and is a "best buy".  If this Motel 6 were in Vegas, they'd blow it up.I have to seriously question some reviewers of this place who claim clean rooms.  They are either shills or stayed in a different wing of this disgusting place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r152763554-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>152763554</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>How Things Change</t>
+  </si>
+  <si>
+    <t>This Motel 6 was quite nice in spring 2012, but upon return in autumn it had gone downhill and I left. It may have cleaned up since that time but my rating reflects an average review because of the change it seemed to have undergone. 
+My initial stay was very pleasant. The room was large and squeaky-clean with a king-sized bed and a nice TV, microwave &amp; mini-fridge. The property was obviously acquired from another hotel chain, but very nice. The pool and hot-tub were well maintained and the parking lot had a few boxes near the building but was otherwise okay. Watching planes on their approach to nearby John Wayne Airport from the hot-tub was a serene experience, very peaceful. The gentleman who checked me in was courteous, efficient and professional and the lobby was impressively decorated and shiny. It was so nice I purposely returned to that location, even though it was a little out of my way.
+Upon returning, however, I walked into a dusty, fingerprinted up lobby that smelled of both tobacco and marijuana smoke that had wafted in from the nearby rooms and was greeted with a smile at the front desk but told there were no non-smoking rooms available, and in fact no rooms available at all for the next few months, as there was apparently some sort of convention in the area that had booked them solid, long term. As I started to...This Motel 6 was quite nice in spring 2012, but upon return in autumn it had gone downhill and I left. It may have cleaned up since that time but my rating reflects an average review because of the change it seemed to have undergone. My initial stay was very pleasant. The room was large and squeaky-clean with a king-sized bed and a nice TV, microwave &amp; mini-fridge. The property was obviously acquired from another hotel chain, but very nice. The pool and hot-tub were well maintained and the parking lot had a few boxes near the building but was otherwise okay. Watching planes on their approach to nearby John Wayne Airport from the hot-tub was a serene experience, very peaceful. The gentleman who checked me in was courteous, efficient and professional and the lobby was impressively decorated and shiny. It was so nice I purposely returned to that location, even though it was a little out of my way.Upon returning, however, I walked into a dusty, fingerprinted up lobby that smelled of both tobacco and marijuana smoke that had wafted in from the nearby rooms and was greeted with a smile at the front desk but told there were no non-smoking rooms available, and in fact no rooms available at all for the next few months, as there was apparently some sort of convention in the area that had booked them solid, long term. As I started to leave a little weary from the road I was approached by one of their guests, speaking perfect ebonics: "Ya' okay?""I'm fine.""You sure? I got somethin' that'll hep ya'!""No, uhh... I've gotta go.""Well ookay, aih offered."As I smelled the marijuana smoke and looked at the rooms with open doors on the way to the car I heard four people fighting amongst one another &amp; left quickly. It's a shame if this property hasn't cleaned up well after that entourage took over. It had been a very nice establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>This Motel 6 was quite nice in spring 2012, but upon return in autumn it had gone downhill and I left. It may have cleaned up since that time but my rating reflects an average review because of the change it seemed to have undergone. 
+My initial stay was very pleasant. The room was large and squeaky-clean with a king-sized bed and a nice TV, microwave &amp; mini-fridge. The property was obviously acquired from another hotel chain, but very nice. The pool and hot-tub were well maintained and the parking lot had a few boxes near the building but was otherwise okay. Watching planes on their approach to nearby John Wayne Airport from the hot-tub was a serene experience, very peaceful. The gentleman who checked me in was courteous, efficient and professional and the lobby was impressively decorated and shiny. It was so nice I purposely returned to that location, even though it was a little out of my way.
+Upon returning, however, I walked into a dusty, fingerprinted up lobby that smelled of both tobacco and marijuana smoke that had wafted in from the nearby rooms and was greeted with a smile at the front desk but told there were no non-smoking rooms available, and in fact no rooms available at all for the next few months, as there was apparently some sort of convention in the area that had booked them solid, long term. As I started to...This Motel 6 was quite nice in spring 2012, but upon return in autumn it had gone downhill and I left. It may have cleaned up since that time but my rating reflects an average review because of the change it seemed to have undergone. My initial stay was very pleasant. The room was large and squeaky-clean with a king-sized bed and a nice TV, microwave &amp; mini-fridge. The property was obviously acquired from another hotel chain, but very nice. The pool and hot-tub were well maintained and the parking lot had a few boxes near the building but was otherwise okay. Watching planes on their approach to nearby John Wayne Airport from the hot-tub was a serene experience, very peaceful. The gentleman who checked me in was courteous, efficient and professional and the lobby was impressively decorated and shiny. It was so nice I purposely returned to that location, even though it was a little out of my way.Upon returning, however, I walked into a dusty, fingerprinted up lobby that smelled of both tobacco and marijuana smoke that had wafted in from the nearby rooms and was greeted with a smile at the front desk but told there were no non-smoking rooms available, and in fact no rooms available at all for the next few months, as there was apparently some sort of convention in the area that had booked them solid, long term. As I started to leave a little weary from the road I was approached by one of their guests, speaking perfect ebonics: "Ya' okay?""I'm fine.""You sure? I got somethin' that'll hep ya'!""No, uhh... I've gotta go.""Well ookay, aih offered."As I smelled the marijuana smoke and looked at the rooms with open doors on the way to the car I heard four people fighting amongst one another &amp; left quickly. It's a shame if this property hasn't cleaned up well after that entourage took over. It had been a very nice establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r147306518-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>147306518</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>Motel 6 Irvine - Orange County Airport</t>
+  </si>
+  <si>
+    <t>The rooms were clean and smelled fresh. The staff was friendly and very  accommodating .  The location was   close to the shopping mall and  had easy on/off to the 55 FWY. The motel 6  rates were great, front desk gave discounts to seniors. There are many restaurants nearby to choose from.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r140651433-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>140651433</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Fifty shades of dirt</t>
+  </si>
+  <si>
+    <t>Its a motel 6 so you don't expect much but this place is the low point of any stay. It looks fine from the outside but don't be fooled. Just because it's Cheap shouldn't mean its dirty, but in this case it was. The carpet was really cruddy, don't go in any of these motels without a pair of flip flops, but army boots would have been better for this one, I don't want to belabor the point stay away especially if you are traveling with children.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r131630878-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>131630878</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>Quiet and Clean</t>
+  </si>
+  <si>
+    <t>Very nice motel for the price. Staff are helpful and the rooms are clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r130249779-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>130249779</t>
+  </si>
+  <si>
+    <t>05/19/2012</t>
+  </si>
+  <si>
+    <t>Very dirty, bad service, rude manager.</t>
+  </si>
+  <si>
+    <t>Our stay: walk in to room and instantly there is a strong stench of urine, take shoes off to get in bed &amp; step into a large puddle of urine next to the bed.. Ask to change rooms, try to use the shower to wash my foot but there are black hairs all in the bathtub, disgusted &amp; frustrated. Try laying in the bed but it feels dirty.  Get out of bed because I start itching all over (bed bugs or not properly cleaned sheets, don't want to know). Then we are both mad and want a full refund but the manager doesn't want to help us, she would rather sleep than help customers. Once se finally gets up and comes downstairs, she chooses to argue with us for over an hour rather than apologizing for the bad experience. Once we threaten to talk to her boss the next day, she finally decides to refund our stay. Even though it's dirt cheap, in our opinion it's not even worth a dime to stay there, so beware.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay: walk in to room and instantly there is a strong stench of urine, take shoes off to get in bed &amp; step into a large puddle of urine next to the bed.. Ask to change rooms, try to use the shower to wash my foot but there are black hairs all in the bathtub, disgusted &amp; frustrated. Try laying in the bed but it feels dirty.  Get out of bed because I start itching all over (bed bugs or not properly cleaned sheets, don't want to know). Then we are both mad and want a full refund but the manager doesn't want to help us, she would rather sleep than help customers. Once se finally gets up and comes downstairs, she chooses to argue with us for over an hour rather than apologizing for the bad experience. Once we threaten to talk to her boss the next day, she finally decides to refund our stay. Even though it's dirt cheap, in our opinion it's not even worth a dime to stay there, so beware.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r126236395-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>126236395</t>
+  </si>
+  <si>
+    <t>03/17/2012</t>
+  </si>
+  <si>
+    <t>terrible staff and services</t>
+  </si>
+  <si>
+    <t>we originally booked our hotel for maingate anahiem CA, but they overbooked and we were then moved here, they never my daughters room for the five days we were there, and our room they would make one bed and not the other, they kept giving our rooms to other customers and we were promised a fridge like we reserved but never got it until the last day of our stay, this place was dirty and the staff didn't seem to know there job.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r116719958-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>116719958</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>No Thank you!</t>
+  </si>
+  <si>
+    <t>Stayed here for a week - (made reservations from elsewhere for the week, and was told after arrival NO REFUNDS). First room they showed me smelled bad- and I complained to the front desk, who (promptly) moved me to a better room down another hall.  Bed was adequate but not really comfortable, shower temps were good though, lighting ok, noise outside window is next to either a noisy freeway or a gas station where people drive in late at night and lean on their horn just to be irritating to the motel guests.  
+PRO's - front desk was usually courteous. Though I noted not to everyone- there were two times they were arguing with other travellers about promised room rates that were  higher then stated.). lights ok, shower hot, tv worked ok. 
+CONS: Hookers hanging around the front entrance and inside the spacious lobby and monopolizing the $10 for 10 minutes internet connection (that broke three times while I was there) it's slow also-. No Refrigerators or microwaves in the rooms , (every other motel in town has them), rooms were smelly and you actually have to ASK for a clean one, there was a really rude dude in a wheelchair who regularly blocked the front entrance doors and tried to pick arguments if you asked him to move out of the way.  Other Cons: At the freeway entrance three times saw a guy with an empty gas can and...Stayed here for a week - (made reservations from elsewhere for the week, and was told after arrival NO REFUNDS). First room they showed me smelled bad- and I complained to the front desk, who (promptly) moved me to a better room down another hall.  Bed was adequate but not really comfortable, shower temps were good though, lighting ok, noise outside window is next to either a noisy freeway or a gas station where people drive in late at night and lean on their horn just to be irritating to the motel guests.  PRO's - front desk was usually courteous. Though I noted not to everyone- there were two times they were arguing with other travellers about promised room rates that were  higher then stated.). lights ok, shower hot, tv worked ok. CONS: Hookers hanging around the front entrance and inside the spacious lobby and monopolizing the $10 for 10 minutes internet connection (that broke three times while I was there) it's slow also-. No Refrigerators or microwaves in the rooms , (every other motel in town has them), rooms were smelly and you actually have to ASK for a clean one, there was a really rude dude in a wheelchair who regularly blocked the front entrance doors and tried to pick arguments if you asked him to move out of the way.  Other Cons: At the freeway entrance three times saw a guy with an empty gas can and a sign claiming he needed money for gas- and was "broke" and "homeless" - on my last night there saw the same guy coming out of a second floor room to the stairs- carrying the gas can with him- he got in a new BMW and drive off with two women!  Homeless Con Man!      I would never recommend this Motel 6 to anyone even for 1 night. There is a very decent Comfort Inn on Hotel Terrace Drive and 3 other good motels just a block away or so on the other side of the freeway - which cost very little more and are definitely better!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for a week - (made reservations from elsewhere for the week, and was told after arrival NO REFUNDS). First room they showed me smelled bad- and I complained to the front desk, who (promptly) moved me to a better room down another hall.  Bed was adequate but not really comfortable, shower temps were good though, lighting ok, noise outside window is next to either a noisy freeway or a gas station where people drive in late at night and lean on their horn just to be irritating to the motel guests.  
+PRO's - front desk was usually courteous. Though I noted not to everyone- there were two times they were arguing with other travellers about promised room rates that were  higher then stated.). lights ok, shower hot, tv worked ok. 
+CONS: Hookers hanging around the front entrance and inside the spacious lobby and monopolizing the $10 for 10 minutes internet connection (that broke three times while I was there) it's slow also-. No Refrigerators or microwaves in the rooms , (every other motel in town has them), rooms were smelly and you actually have to ASK for a clean one, there was a really rude dude in a wheelchair who regularly blocked the front entrance doors and tried to pick arguments if you asked him to move out of the way.  Other Cons: At the freeway entrance three times saw a guy with an empty gas can and...Stayed here for a week - (made reservations from elsewhere for the week, and was told after arrival NO REFUNDS). First room they showed me smelled bad- and I complained to the front desk, who (promptly) moved me to a better room down another hall.  Bed was adequate but not really comfortable, shower temps were good though, lighting ok, noise outside window is next to either a noisy freeway or a gas station where people drive in late at night and lean on their horn just to be irritating to the motel guests.  PRO's - front desk was usually courteous. Though I noted not to everyone- there were two times they were arguing with other travellers about promised room rates that were  higher then stated.). lights ok, shower hot, tv worked ok. CONS: Hookers hanging around the front entrance and inside the spacious lobby and monopolizing the $10 for 10 minutes internet connection (that broke three times while I was there) it's slow also-. No Refrigerators or microwaves in the rooms , (every other motel in town has them), rooms were smelly and you actually have to ASK for a clean one, there was a really rude dude in a wheelchair who regularly blocked the front entrance doors and tried to pick arguments if you asked him to move out of the way.  Other Cons: At the freeway entrance three times saw a guy with an empty gas can and a sign claiming he needed money for gas- and was "broke" and "homeless" - on my last night there saw the same guy coming out of a second floor room to the stairs- carrying the gas can with him- he got in a new BMW and drive off with two women!  Homeless Con Man!      I would never recommend this Motel 6 to anyone even for 1 night. There is a very decent Comfort Inn on Hotel Terrace Drive and 3 other good motels just a block away or so on the other side of the freeway - which cost very little more and are definitely better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r90429493-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>90429493</t>
+  </si>
+  <si>
+    <t>12/21/2010</t>
+  </si>
+  <si>
+    <t>Pushy</t>
+  </si>
+  <si>
+    <t>Make sure you check out by noon. Management and housekeeping will harrass you and really don't like late check-outs. No appreciation for regular guests.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r83447638-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>83447638</t>
+  </si>
+  <si>
+    <t>10/14/2010</t>
+  </si>
+  <si>
+    <t>A restful sleep, convienantly close for a day @ the beach.</t>
+  </si>
+  <si>
+    <t>It is a large motel.  It has comfortable beds.  It is a clean motel.  It has jacuzzi &amp; pool which makes it more enjoyable.  It's close to food and freeway.  It takes pets.  We stay there when ever we're on that side of town.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r52986841-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>52986841</t>
+  </si>
+  <si>
+    <t>01/08/2010</t>
+  </si>
+  <si>
+    <t>Nasty accommodadtyions. Management doesnt care to keep clean</t>
+  </si>
+  <si>
+    <t>Don't bring children here. Prostitutes haunt the place and the staff knows it. The place smells. The furniture is old, stained and the lobby chairs smelled of urine. It is a dive. THe help are arrogant and clearly look down on their clents which is funny becuase they are a graceless, crew. If you have any other alternative dot come. Board of Health should shut them down Heat is noisy and aturns off. Same with air conditionser. Carpets are so nasty you will want to wear your shoes at all ti mes. YOu  mnight contracaat a disease God forbid</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r46395182-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>46395182</t>
+  </si>
+  <si>
+    <t>10/09/2009</t>
+  </si>
+  <si>
+    <t>Motel 6 "AIRPORT" is right!  LOUD!</t>
+  </si>
+  <si>
+    <t>I had sto stay here because I am looking for a property to rent and needed somewhere to stay in between.  If you stay in a room towards the front of the hotel the street traffic is so loud &amp; if a big truck goes by your room will shake.  I stayed upstairs for the balcony &amp; the planes that went over were deafening especially when I was trying to sleep. I would have to shut the balcony door &amp; couldn't even enjoy it because I couldn't hear the tv or my phone calls. On the other hand the staff is pretty polite especially Blanca at the front desk and they accepted my cats no problem &amp; the room did not smell like pets even though they allow them. I would only recommend this if you have pets since they are pet friendly.  Oh yea be careful crossing the street to go to Del Taco, Carl's Jr, 7-Eleven....it can be dangerous!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I had sto stay here because I am looking for a property to rent and needed somewhere to stay in between.  If you stay in a room towards the front of the hotel the street traffic is so loud &amp; if a big truck goes by your room will shake.  I stayed upstairs for the balcony &amp; the planes that went over were deafening especially when I was trying to sleep. I would have to shut the balcony door &amp; couldn't even enjoy it because I couldn't hear the tv or my phone calls. On the other hand the staff is pretty polite especially Blanca at the front desk and they accepted my cats no problem &amp; the room did not smell like pets even though they allow them. I would only recommend this if you have pets since they are pet friendly.  Oh yea be careful crossing the street to go to Del Taco, Carl's Jr, 7-Eleven....it can be dangerous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r8728207-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>8728207</t>
+  </si>
+  <si>
+    <t>09/16/2007</t>
+  </si>
+  <si>
+    <t>Just ok but sketchy</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times over the last few years.  Until recently it was a Red Roof Inn and had been a fairly well kept property.  Apparently it was recently turned into a Motel 6 and it is apparent the clientele has changed for the worse.  I noticed quite a few questionable characters loitering around the stairs when I arrived after a late night flight.  The room was clean and in good condition and the HVAC functioned properly so I have no complaints inside the room.  In the future I will avoid this location as it appears the neighborhood has gotten marginal.  There are plenty of other hotels nearby for similar prices that are in much better and safer locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times over the last few years.  Until recently it was a Red Roof Inn and had been a fairly well kept property.  Apparently it was recently turned into a Motel 6 and it is apparent the clientele has changed for the worse.  I noticed quite a few questionable characters loitering around the stairs when I arrived after a late night flight.  The room was clean and in good condition and the HVAC functioned properly so I have no complaints inside the room.  In the future I will avoid this location as it appears the neighborhood has gotten marginal.  There are plenty of other hotels nearby for similar prices that are in much better and safer locations.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1273,1914 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>171</v>
+      </c>
+      <c r="X19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" t="s">
+        <v>239</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+      <c r="O30" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_534.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>AlaskaWanderlust907</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>First of all the rooms were very outdated and gross. They were clean-ish, but not to my standards. The pool was unusable. Ducks had taken over the entire area pooping everywhere including inside the hot tub! Gag! My poor kids couldn't swim to let off energy which was hectic. I'm glad I only had to endure 1 night. I couldn't even shower without using my flip flops and there was hair on the walls!!!! Do not stay here. Ask to see the rooms first and inspect the pool area. Not happy with my experience.More</t>
   </si>
   <si>
+    <t>yecklcarresa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r547272069-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>DelLosAngeles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r482356348-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>I don't often stay at Motel 6, but I had business in the area, was traveling alone, and needed a room for one night. I made a reservation at this property on 3/17/2016 and was quoted a rate of 82.13.  I was e-mailed a confirmation of this amount on official Motel 6 letterhead, which I brought with me to the property. On arrival, the desk clerk, Tony Kais, attempted to charge me more.  I politely informed him that my reservation, including tax, was for the amount of 82.13.  I then showed him the official reservation, and he said that he would charge me $84, because I was "being difficult."  In fact, I was not being difficult (please see my other reviews; it should be evident that I am not "difficult" with hotels or their staff), I was simply providing him with evidence that he was wrong, and that he was attempting to overcharge me. I then said that I would pay him the $84, and asked for a receipt.  At this point, HE RAISED THE PRICE TO NINETY-THREE DOLLARS, and refused to give a receipt.  I left the property and immediately brought the matter to the attention to the manager of the property, David Castro, who ignored my telephone calls. I sent Mr. Castro TWO CERTIFIED LETTERS, one dated April 18, 2016, and one dated May 18, 2017.  Both provided evidence that Mr. Kais had committed extortion and had attempted...I don't often stay at Motel 6, but I had business in the area, was traveling alone, and needed a room for one night. I made a reservation at this property on 3/17/2016 and was quoted a rate of 82.13.  I was e-mailed a confirmation of this amount on official Motel 6 letterhead, which I brought with me to the property. On arrival, the desk clerk, Tony Kais, attempted to charge me more.  I politely informed him that my reservation, including tax, was for the amount of 82.13.  I then showed him the official reservation, and he said that he would charge me $84, because I was "being difficult."  In fact, I was not being difficult (please see my other reviews; it should be evident that I am not "difficult" with hotels or their staff), I was simply providing him with evidence that he was wrong, and that he was attempting to overcharge me. I then said that I would pay him the $84, and asked for a receipt.  At this point, HE RAISED THE PRICE TO NINETY-THREE DOLLARS, and refused to give a receipt.  I left the property and immediately brought the matter to the attention to the manager of the property, David Castro, who ignored my telephone calls. I sent Mr. Castro TWO CERTIFIED LETTERS, one dated April 18, 2016, and one dated May 18, 2017.  Both provided evidence that Mr. Kais had committed extortion and had attempted to commit consumer fraud. Mr. Castro did not respond to either one.  I visited the property in an attempt to speak with Mr. Castro directly, and was informed that Mr. Castro "wasn't available." It begs the question as to whom is in on what. I have contacted Motel 6 corporate on numerous occasions.  The only action they took was to provide me with gift certificates for two free stays, which is nice I suppose, but doesn't address the problem: they have a rogue property manager that sanctions criminal activity at this property. The only good thing about this situation was that, because I left, I was not subjected to the horrible experiences so many others have described here.  Prospective guests, stay here at your substantial risk.More</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r421560173-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>marlener667</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r411619687-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>531jamiejones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r400237417-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>7/31/2016 3 pm David Castro, general manager at this Motel 6 location in Santa Ana threw me out of the Motel 6 in Santa Ana and threated to call the police if I didn't leave in 30 minutes. Assuming this is the person's name, as I asked for a card from the lobby on who this person was when I checked out and there is a picture to collaborate. There were major problems when I stayed at this Motel 6 one other time about 4 months ago and I never wanted to stay at this location again.. David Castro knocked on my door extremely aggressively and then David Castro was aggressive when he spoke to me at my hotel room door. Also David Castro said lease the dog in a very aggressive manner when the door was opened to talk to David Castro and this is a small dog of 12 pounds. I came down to the hotel lobby and stated to David Castro, in person, that David Castro was extremely aggressive at my hotel room door. David Castro attempted to reverse the situation and claimed I was aggressive which is very inaccurate. Then David Castro threw me out of the hotel, and said if I didn't leave in 30 minutes David Castro was going to call the police. Motel 6 executive management must understand this person that David Castro has no business working in the hotel industry, and as...7/31/2016 3 pm David Castro, general manager at this Motel 6 location in Santa Ana threw me out of the Motel 6 in Santa Ana and threated to call the police if I didn't leave in 30 minutes. Assuming this is the person's name, as I asked for a card from the lobby on who this person was when I checked out and there is a picture to collaborate. There were major problems when I stayed at this Motel 6 one other time about 4 months ago and I never wanted to stay at this location again.. David Castro knocked on my door extremely aggressively and then David Castro was aggressive when he spoke to me at my hotel room door. Also David Castro said lease the dog in a very aggressive manner when the door was opened to talk to David Castro and this is a small dog of 12 pounds. I came down to the hotel lobby and stated to David Castro, in person, that David Castro was extremely aggressive at my hotel room door. David Castro attempted to reverse the situation and claimed I was aggressive which is very inaccurate. Then David Castro threw me out of the hotel, and said if I didn't leave in 30 minutes David Castro was going to call the police. Motel 6 executive management must understand this person that David Castro has no business working in the hotel industry, and as a hotel manager has the authority to throw anyone out of the hotel and then threaten to have the local Santa Ana police come and created a potentially violent situation based on David Castro's word. David Castro in this situation threw a vacationer out of the hotel after David Castro was extremely aggressive and acted in a threatening manner. Motel 6 executive management should not allow this location to use the Motel 6 franchise name as vacationers and air travelers to Orange County airport are subjected to grave risk from this manager David Castro, having authority to call local Santa Ana police under his word which gives false accounts of vacationers then the local police showing up causing very serious potential risk to these vacationers. This David Castro obviously has some personal issues and surprised he can hold down a job, any job, let alone working in the hotel business which David Castro is ill fitted to work in this industry. You can't really see David Castro's demeanor that well from the blurry pictures. I rebooked at the Motel 6 on another location which I normally always stay, but that Motel 6 was $ higher. Saturday night, 7/29/2016, so chose a different Motel 6 due to cost considerations. This guy, David Castro, thinks he is running a prison not a hotel. Everyone who books a room in this location isn't homeless and vacationers also stay here such as me. Filing a formal and major complaint against, David Castro, in attempt to get him fired. He shouldn't be working in the hotel industry, and as mentioned, prison guard would be a better job for him. I left and got my belongings out that's a high insult saying your calling the police on a customer when as general manager you instigated the trouble. I was told he was paid for all 4 nights when I initially checked in and then they stated they wanted me to pay each day on this day, 7/31/2016 . The reviews on Yelp are beyond terrible for this Motel 6 in Santa Ana. David Castro has done this before. Got the impression the hotel staff would like to see David Castro fired as when I checked out and turned in my motel key. The picture of David Castro is from when I was moving all my belongings out 30 minutes later after I rebooked at Motel 6 on another safe location for the next 3 days. David Castro was waiting outside my hotel room door so got David Castro's picture. David Castro isn't civilized and obviously David Castro was very concerned I  was going to go after Castro's job in an attempt to get Castro rightfully fired. Every time you stay at a Motel 6 they ask for feedback on your stay and this is my feedback.]  David Castro General Manager  1717 E Dyer Road Santa Ana, CA 92705 (949) 261-1515More</t>
   </si>
   <si>
+    <t>Tina B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r332135638-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Michelle G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r317382763-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>They have bed bugs they had a year ago and they still have them check in check the beds checked out one half hour later was given a refund but no money has appeared in my account its been 4 days. I stayed there approximately 1 year ago for two days I didn't find them until the last day when I was packing up. I was horrified when I found them I went out and bought trash bags and bed bug spray I put all my belongings into the trash bags sprayed all of my belongings inside the trash bag sealed them up then loaded them into the car then home upon arriving at home open bags put all items into washing machine with hot water I'm lucky I didn't carry little monsters home no infestation ever appeared at home thank goodnessMore</t>
   </si>
   <si>
+    <t>Zoom_Gotti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r294131156-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>I guess the best thing about this place is the pool. So if you're a family with kids who like to splash in a rather big outdoor pool - and that's all - go for it!  Otherwise, the hotel is less than bare bones. My room was spacious but no fridge, microwave, iron, or bath supplies. I came down in the morning for complimentary coffee but they ran out. Negotiating maintenance and the billing with the staff is a challenge. The motel is backed up to the freeway so you might take offense at night from the noise of the traffic. But plenty of free parking and there is gas and a bit of fast food that's walkable.More</t>
   </si>
   <si>
+    <t>Frank R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r288320166-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t>We checked in via the Delta app to fly out early the next AM and the security doors were inoperative (always open) NO amenities but one bar of soap, NOISY - I heard hallway noise and doors slamming WITH earplugs in all night. They had free coffee the next AM and nothing else, NO Airport shuttle or offer to arrange. Mostly the grounds were filthy and unkempt, the dog poop bags were empty. My shower head was held on by a dirty rag and the curtain hung off the wall. This place would sit well in a third world country</t>
   </si>
   <si>
+    <t>dstskinner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r284521168-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>I arrived here this past weekend, with a bit of a mix up in reservations on my part. So, while I am on the phone with the other location to cancel,  (so I wont get charged for not showing up, as it was almost the cut off time), the agent at the front desk kept asking me questions about what I needed for the night. Couldn't it have waited just a few minutes while I was on the phone? (I was the only guest in the lobby so I wasn't holding anyone up).Once I was finally in the room, there were stains on the bed sheets and on the bathmat.More</t>
   </si>
   <si>
+    <t>LightPro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r269404400-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Fellowtraveler88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r226154900-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Zzoomzzoom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r221478819-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>Rooms are very plain.  One bed (not very comfy), a built in desk with chair, dresser and TV.  We checked in and requested a non smoking room.  When we opened the door to the room someone had obviously smoked recently in it.  I went back to the desk and she offered me a "spray" to fix it!  I asked if there was a different room and she finally agreed to move us.  At 12 midnight someone decided to pound on our neighbors door and yell loudly in Spanish.  It was a no frills night, kinda expected more for what we paid.</t>
   </si>
   <si>
+    <t>rockbuster13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r219124190-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -471,6 +516,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>cewtwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r190768286-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t>I liked this Motel 6.The room looked newly renovated. It was clean and comfortable.The room(s) were good; the staff was excellent. They really made me and my party feel comfortable and secure. We used this motel for 3 nights. Two nights in an upstairs rooms prior to a cruise and one night in a downstairs room after the cruise.We got off of our cruise ship and enterred the motel early.  The manager remembered us from the earlier nights. Although he could not check us in, he did secure our luggage while offering us some ideas regarding local things to see and do. We took him up on Newport Beacj and had a wonderful day.I would recommend this motel to anyone for their stay in the Orange County area.More</t>
   </si>
   <si>
+    <t>1949xumil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r187581966-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -514,6 +565,9 @@
   </si>
   <si>
     <t>it was ok for the money early this year 2013 stayed there about 5 times diferent times 2 o 3 nights each time.Some of the reviews here are correct.stared to look more like a half way house. ,vagrantsand pandhandlers linger in the parking lot,even some sleep in their cars,rooms always dirty,comforters with cigarrets holes,I put up with that for long time,but for me the kicker  was when my truck was vandalised(someone drill a hole in my gas tank of my truck and stole my full tank of gas,total bill for the repairs,$400 dlls.),don't park your automovil way in the back is very isolated.So,I swicht to la quinta next door 45 dlls.more but is worth it.No more mothel 6 for me.I forgot to mention they charge extra for internet,refrigerator,or micro.I get all that plus a small sink at la quinta inn is standar in all their rooms.More</t>
+  </si>
+  <si>
+    <t>swtraveler2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r172885085-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -540,6 +594,9 @@
   <si>
     <t>This is one of 8 motels just off of RT 55 at the Dyer Rd exit.  There are about 6 others at adjacent exits too.  It is also one of the oldest (the nearby Holiday Inn might be older).  It's been affiliated with a variety of chains, going a step lower in grade with each change, and was a Red Roof before it became Motel 6.  I stayed there many times when it was Red Roof.  The rooms are larger than average, they have patios, and there is always ample parking with wide parking spaces.  When Motel 6 took over, they raised the rates and the nearby Comfort Suites (their rooms are not really suites) was a better deal for about the same price with a free continental+ breakfast.  Well the econopmy must be getting better because the Comfort had boosted rates for the summer so I decided to try this motel in its Motel 6 incarnation.  The $35 a night difference betwen this and the Comfort could buy a very nice breakfast.
 There are some noise issues with this motel.  As others have mentioned it is almost directly below the landing pattern for the nearby airport and the planes are low and loud.  Fortunately, the ariport does not operate betwen about 11PM and 7 AM.  The other noise source is busy Dyer Road and the 55 itself.  The motel has 3 wings and half the room are within a...This is one of 8 motels just off of RT 55 at the Dyer Rd exit.  There are about 6 others at adjacent exits too.  It is also one of the oldest (the nearby Holiday Inn might be older).  It's been affiliated with a variety of chains, going a step lower in grade with each change, and was a Red Roof before it became Motel 6.  I stayed there many times when it was Red Roof.  The rooms are larger than average, they have patios, and there is always ample parking with wide parking spaces.  When Motel 6 took over, they raised the rates and the nearby Comfort Suites (their rooms are not really suites) was a better deal for about the same price with a free continental+ breakfast.  Well the econopmy must be getting better because the Comfort had boosted rates for the summer so I decided to try this motel in its Motel 6 incarnation.  The $35 a night difference betwen this and the Comfort could buy a very nice breakfast.There are some noise issues with this motel.  As others have mentioned it is almost directly below the landing pattern for the nearby airport and the planes are low and loud.  Fortunately, the ariport does not operate betwen about 11PM and 7 AM.  The other noise source is busy Dyer Road and the 55 itself.  The motel has 3 wings and half the room are within a stone's throw of the freeway.I arrived early, around 11:30 AM, and was told no rooms were clean (spoiler alert: I don't think any of the rooms are EVER clean).  I gave them my reservation and name and asked that they save me a room near room 225 (second of the two floors and furthest away from Dyer Road and the 55).  I arrived back at 4 and was told i had room 203!  I asked for a different room and got 211, much better.  You pay at check-in and you do not get an itemized receipt, just an indication of what you paid.As I walked up the lobby steps to my room (there is an elevator I chose not to use) I was struck at how filthy the carpet on the steps was - virtually black in many areas.  The hall carpet had many large stains.  My room carpet had more spots than a dalmation.  The sliding glass door to the patio has a light blocking plastic liner which had so many holes it looked like someone had hit it with a shotgun.  At this point I'm not feeling good about my decision but I'm stuck for this trip.Later when I use the sink I find long black hairs (at least they weren't short and curly).  Now I'm wondering if anything in the room is properly clean.  The amenities were peculiar.  No alarm clock, shampoo, or tissues (used the spare roll of toilet paper as tissue) but I had a mini-fridge and microwave.  I did not use the pool but it seemed nice.Another reviewer mentioned "nearby restaurants" but this is true only if you count Del Taco and Carl's burgers.  A decent restaurant is several miles away.  There used to be a small, and bad, restaurant adjacent to the property years ago but was replaced by an ARCO gas station and mini-mart.  This is the cheapest (by far) gas station in the area and I saw a few vagrants on their lot during my stay.  It also is a noise source if you are near the front, like room 203.So despite the big difference in price, the Comfort is still the place to be if you are on a budget and care about cleanliness. For a few bucks more than the Comfort, the Quality Suites has real suites, a made-to-order breakfast, and is a "best buy".  If this Motel 6 were in Vegas, they'd blow it up.I have to seriously question some reviewers of this place who claim clean rooms.  They are either shills or stayed in a different wing of this disgusting place.More</t>
+  </si>
+  <si>
+    <t>Dunebuggy4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r152763554-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -567,6 +624,9 @@
 Upon returning, however, I walked into a dusty, fingerprinted up lobby that smelled of both tobacco and marijuana smoke that had wafted in from the nearby rooms and was greeted with a smile at the front desk but told there were no non-smoking rooms available, and in fact no rooms available at all for the next few months, as there was apparently some sort of convention in the area that had booked them solid, long term. As I started to...This Motel 6 was quite nice in spring 2012, but upon return in autumn it had gone downhill and I left. It may have cleaned up since that time but my rating reflects an average review because of the change it seemed to have undergone. My initial stay was very pleasant. The room was large and squeaky-clean with a king-sized bed and a nice TV, microwave &amp; mini-fridge. The property was obviously acquired from another hotel chain, but very nice. The pool and hot-tub were well maintained and the parking lot had a few boxes near the building but was otherwise okay. Watching planes on their approach to nearby John Wayne Airport from the hot-tub was a serene experience, very peaceful. The gentleman who checked me in was courteous, efficient and professional and the lobby was impressively decorated and shiny. It was so nice I purposely returned to that location, even though it was a little out of my way.Upon returning, however, I walked into a dusty, fingerprinted up lobby that smelled of both tobacco and marijuana smoke that had wafted in from the nearby rooms and was greeted with a smile at the front desk but told there were no non-smoking rooms available, and in fact no rooms available at all for the next few months, as there was apparently some sort of convention in the area that had booked them solid, long term. As I started to leave a little weary from the road I was approached by one of their guests, speaking perfect ebonics: "Ya' okay?""I'm fine.""You sure? I got somethin' that'll hep ya'!""No, uhh... I've gotta go.""Well ookay, aih offered."As I smelled the marijuana smoke and looked at the rooms with open doors on the way to the car I heard four people fighting amongst one another &amp; left quickly. It's a shame if this property hasn't cleaned up well after that entourage took over. It had been a very nice establishment.More</t>
   </si>
   <si>
+    <t>Erik N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r147306518-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -585,6 +645,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Uptowngal12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r140651433-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -603,6 +666,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>kimjady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r131630878-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -618,6 +684,9 @@
     <t>Very nice motel for the price. Staff are helpful and the rooms are clean.</t>
   </si>
   <si>
+    <t>Lifeneedslove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r130249779-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -636,6 +705,9 @@
     <t>Our stay: walk in to room and instantly there is a strong stench of urine, take shoes off to get in bed &amp; step into a large puddle of urine next to the bed.. Ask to change rooms, try to use the shower to wash my foot but there are black hairs all in the bathtub, disgusted &amp; frustrated. Try laying in the bed but it feels dirty.  Get out of bed because I start itching all over (bed bugs or not properly cleaned sheets, don't want to know). Then we are both mad and want a full refund but the manager doesn't want to help us, she would rather sleep than help customers. Once se finally gets up and comes downstairs, she chooses to argue with us for over an hour rather than apologizing for the bad experience. Once we threaten to talk to her boss the next day, she finally decides to refund our stay. Even though it's dirt cheap, in our opinion it's not even worth a dime to stay there, so beware.More</t>
   </si>
   <si>
+    <t>Jenni P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r126236395-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -652,6 +724,9 @@
   </si>
   <si>
     <t>March 2012</t>
+  </si>
+  <si>
+    <t>RedTraveller44</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r116719958-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -679,6 +754,9 @@
 CONS: Hookers hanging around the front entrance and inside the spacious lobby and monopolizing the $10 for 10 minutes internet connection (that broke three times while I was there) it's slow also-. No Refrigerators or microwaves in the rooms , (every other motel in town has them), rooms were smelly and you actually have to ASK for a clean one, there was a really rude dude in a wheelchair who regularly blocked the front entrance doors and tried to pick arguments if you asked him to move out of the way.  Other Cons: At the freeway entrance three times saw a guy with an empty gas can and...Stayed here for a week - (made reservations from elsewhere for the week, and was told after arrival NO REFUNDS). First room they showed me smelled bad- and I complained to the front desk, who (promptly) moved me to a better room down another hall.  Bed was adequate but not really comfortable, shower temps were good though, lighting ok, noise outside window is next to either a noisy freeway or a gas station where people drive in late at night and lean on their horn just to be irritating to the motel guests.  PRO's - front desk was usually courteous. Though I noted not to everyone- there were two times they were arguing with other travellers about promised room rates that were  higher then stated.). lights ok, shower hot, tv worked ok. CONS: Hookers hanging around the front entrance and inside the spacious lobby and monopolizing the $10 for 10 minutes internet connection (that broke three times while I was there) it's slow also-. No Refrigerators or microwaves in the rooms , (every other motel in town has them), rooms were smelly and you actually have to ASK for a clean one, there was a really rude dude in a wheelchair who regularly blocked the front entrance doors and tried to pick arguments if you asked him to move out of the way.  Other Cons: At the freeway entrance three times saw a guy with an empty gas can and a sign claiming he needed money for gas- and was "broke" and "homeless" - on my last night there saw the same guy coming out of a second floor room to the stairs- carrying the gas can with him- he got in a new BMW and drive off with two women!  Homeless Con Man!      I would never recommend this Motel 6 to anyone even for 1 night. There is a very decent Comfort Inn on Hotel Terrace Drive and 3 other good motels just a block away or so on the other side of the freeway - which cost very little more and are definitely better!More</t>
   </si>
   <si>
+    <t>JohnR2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r90429493-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -697,6 +775,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>Bea4596</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r83447638-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -715,6 +796,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>MallardDuckSwan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r52986841-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -733,6 +817,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>azcorals</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r46395182-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -752,6 +839,9 @@
   </si>
   <si>
     <t>I had sto stay here because I am looking for a property to rent and needed somewhere to stay in between.  If you stay in a room towards the front of the hotel the street traffic is so loud &amp; if a big truck goes by your room will shake.  I stayed upstairs for the balcony &amp; the planes that went over were deafening especially when I was trying to sleep. I would have to shut the balcony door &amp; couldn't even enjoy it because I couldn't hear the tv or my phone calls. On the other hand the staff is pretty polite especially Blanca at the front desk and they accepted my cats no problem &amp; the room did not smell like pets even though they allow them. I would only recommend this if you have pets since they are pet friendly.  Oh yea be careful crossing the street to go to Del Taco, Carl's Jr, 7-Eleven....it can be dangerous!More</t>
+  </si>
+  <si>
+    <t>chris t</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81852-r8728207-Motel_6_Irvine_Orange_County_Airport-Santa_Ana_California.html</t>
@@ -1277,43 +1367,47 @@
       <c r="A2" t="n">
         <v>2045</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1325,56 +1419,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2045</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1388,50 +1486,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2045</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1449,50 +1551,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2045</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1512,50 +1618,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2045</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1569,50 +1679,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2045</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1632,50 +1746,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2045</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1695,50 +1813,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2045</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1750,56 +1872,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2045</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1811,56 +1937,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2045</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1880,50 +2010,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2045</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1943,50 +2077,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2045</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2006,50 +2144,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2045</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2067,41 +2209,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2045</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
@@ -2130,50 +2276,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2045</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2187,50 +2337,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2045</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2254,50 +2408,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>2045</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2321,50 +2479,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2045</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2386,56 +2548,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="X19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Y19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>2045</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2459,50 +2625,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>2045</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2526,50 +2696,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>2045</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2593,50 +2767,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>2045</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2660,41 +2838,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2045</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -2723,50 +2905,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2045</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2790,50 +2976,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2045</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -2853,50 +3043,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2045</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -2920,50 +3114,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2045</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -2977,50 +3175,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2045</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>256</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3044,50 +3246,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>2045</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>263</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3111,50 +3317,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>2045</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -3178,7 +3388,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
